--- a/DAGoPERT.xlsx
+++ b/DAGoPERT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Sem3\software\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="12120" windowHeight="9120" tabRatio="758" activeTab="1"/>
   </bookViews>
@@ -29,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">Hardware!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Risikoanalyse!$A$1:$I$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Risikospinne!$A$1:$J$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Software!$A$1:$H$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Software!$A$1:$H$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Standard-Software'!$A$1:$H$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">Gesamtprojekt!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">Hardware!$1:$1</definedName>
@@ -77,7 +82,7 @@
     <definedName name="ProjektaufwandMh_mitGWL">#REF!</definedName>
     <definedName name="Projektname">#REF!</definedName>
     <definedName name="Proz" localSheetId="6">Hardware!$C$53:$C$62</definedName>
-    <definedName name="Proz" localSheetId="7">Software!$C$69:$C$78</definedName>
+    <definedName name="Proz" localSheetId="7">Software!$C$71:$C$80</definedName>
     <definedName name="Proz" localSheetId="8">'Standard-Software'!$C$46:$C$55</definedName>
     <definedName name="Proz">Gesamtprojekt!$C$61:$C$70</definedName>
     <definedName name="Prozentsatz">#REF!</definedName>
@@ -110,12 +115,12 @@
     <definedName name="ZuschlagVE">#REF!</definedName>
     <definedName name="ZuschlagVWGK">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="538">
   <si>
     <t>PSP Nr.</t>
   </si>
@@ -1795,6 +1800,15 @@
   </si>
   <si>
     <t>win the game</t>
+  </si>
+  <si>
+    <t>improved GetWin</t>
+  </si>
+  <si>
+    <t>S2.11</t>
+  </si>
+  <si>
+    <t>S2.12</t>
   </si>
 </sst>
 </file>
@@ -1881,6 +1895,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -2930,6 +2945,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3047,16 +3065,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1344097001012443</c:v>
+                  <c:v>2.4154002132511327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1563405759053405</c:v>
+                  <c:v>2.4399875984767871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1778342090966278</c:v>
+                  <c:v>2.464089198994686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2192869585789121</c:v>
+                  <c:v>2.5105834318020768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,16 +3146,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7786747500843703</c:v>
+                  <c:v>2.0128335110426105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7969504799211169</c:v>
+                  <c:v>2.033322998730656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8148618409138568</c:v>
+                  <c:v>2.0534076658289053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8494057988157599</c:v>
+                  <c:v>2.092152859835064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,16 +3225,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.60011543480227603</c:v>
+                  <c:v>0.72243997409720007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60938835455452101</c:v>
+                  <c:v>0.73349903430974828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61852226980554903</c:v>
+                  <c:v>0.74439381411528638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63626540367730355</c:v>
+                  <c:v>0.76556153681208439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,16 +3304,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.695893026129818</c:v>
+                  <c:v>1.9526722420123621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7157719482145861</c:v>
+                  <c:v>1.9753482134727789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7352820236166289</c:v>
+                  <c:v>1.9976072376030976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7729852554166166</c:v>
+                  <c:v>2.0406329218509791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3367,16 +3385,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7486559359086493</c:v>
+                  <c:v>1.991137476318019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7675264198558556</c:v>
+                  <c:v>2.012424941182831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7860299912431636</c:v>
+                  <c:v>2.0333022326470869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.821741808318917</c:v>
+                  <c:v>2.0736052444167674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3446,16 +3464,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.80306041423304</c:v>
+                  <c:v>2.0303604282878878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8208420111655363</c:v>
+                  <c:v>2.0501975885936776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8382620727965269</c:v>
+                  <c:v>2.0696350571138007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8718391515316004</c:v>
+                  <c:v>2.1071103301482093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3527,16 +3545,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.86619201956985858</c:v>
+                  <c:v>1.0427522837959118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87957632635768956</c:v>
+                  <c:v>1.0587146622726593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89275999743003032</c:v>
+                  <c:v>1.0744399224063821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91837000522284273</c:v>
+                  <c:v>1.1049928983992015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3606,16 +3624,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1808243810398382</c:v>
+                  <c:v>2.4679252885596572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2032321636922791</c:v>
+                  <c:v>2.4930473488480747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2251931954934667</c:v>
+                  <c:v>2.5176730605982707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2675473727293611</c:v>
+                  <c:v>2.5651783528012109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3651,11 +3669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76069504"/>
-        <c:axId val="76076160"/>
+        <c:axId val="155804296"/>
+        <c:axId val="155805864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76069504"/>
+        <c:axId val="155804296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,12 +3747,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76076160"/>
+        <c:crossAx val="155805864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76076160"/>
+        <c:axId val="155805864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3820,7 +3838,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76069504"/>
+        <c:crossAx val="155804296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.1"/>
@@ -4027,49 +4045,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.33787466941669125</c:v>
+                  <c:v>0.48995720002058613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34992728842668236</c:v>
+                  <c:v>0.50726010801317512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35461441804167892</c:v>
+                  <c:v>0.51398901667695962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35729277782167695</c:v>
+                  <c:v>0.51783410734197954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36013853508792487</c:v>
+                  <c:v>0.52191951617356303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36264949738167307</c:v>
+                  <c:v>0.52552428867201906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36716922951041975</c:v>
+                  <c:v>0.53201287916923989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37135416666666665</c:v>
+                  <c:v>0.53802083333333328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37553910382291356</c:v>
+                  <c:v>0.54402878749742667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38005883595166023</c:v>
+                  <c:v>0.55051737799464751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38256979824540843</c:v>
+                  <c:v>0.55412215049310354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38541555551165635</c:v>
+                  <c:v>0.55820755932468713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38809391529165438</c:v>
+                  <c:v>0.56205264998970694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39278104490665094</c:v>
+                  <c:v>0.56878155865349156</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.40483366391664199</c:v>
+                  <c:v>0.58608446664608049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,11 +4156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78411648"/>
-        <c:axId val="78414208"/>
+        <c:axId val="155949544"/>
+        <c:axId val="155946016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78411648"/>
+        <c:axId val="155949544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,12 +4234,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78414208"/>
+        <c:crossAx val="155946016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78414208"/>
+        <c:axId val="155946016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4307,7 +4325,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78411648"/>
+        <c:crossAx val="155949544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4479,11 +4497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43971712"/>
-        <c:axId val="43973248"/>
+        <c:axId val="244953112"/>
+        <c:axId val="244953504"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="43971712"/>
+        <c:axId val="244953112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4548,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43973248"/>
+        <c:crossAx val="244953504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4538,7 +4556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43973248"/>
+        <c:axId val="244953504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4585,7 +4603,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43971712"/>
+        <c:crossAx val="244953112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -4751,6 +4769,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4828,6 +4852,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4869,11 +4899,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="76505472"/>
-        <c:axId val="76507008"/>
+        <c:axId val="244954680"/>
+        <c:axId val="244955072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76505472"/>
+        <c:axId val="244954680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4908,7 +4938,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76507008"/>
+        <c:crossAx val="244955072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4918,7 +4948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76507008"/>
+        <c:axId val="244955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +4993,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76505472"/>
+        <c:crossAx val="244954680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5758,7 +5788,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5766,6 +5796,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -5819,7 +5872,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5827,6 +5880,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -5880,7 +5956,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5888,6 +5964,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -5941,7 +6040,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5949,6 +6048,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -6002,7 +6124,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6010,6 +6132,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -6063,7 +6208,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6071,6 +6216,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -6124,7 +6292,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6132,6 +6300,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -6185,7 +6376,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6193,6 +6384,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -6378,9 +6592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6418,9 +6632,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6455,7 +6669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6490,7 +6704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10255,7 +10469,7 @@
   <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10369,19 +10583,19 @@
       </c>
       <c r="C14" s="111">
         <f ca="1">'% Konfidenz'!B8</f>
-        <v>57.622165614067981</v>
+        <v>83.507122587770084</v>
       </c>
       <c r="D14" s="111">
         <f>'% Konfidenz'!B11</f>
-        <v>59.416666666666664</v>
+        <v>86.083333333333329</v>
       </c>
       <c r="E14" s="111">
         <f ca="1">'% Konfidenz'!B14</f>
-        <v>61.211167719265347</v>
+        <v>88.659544078896573</v>
       </c>
       <c r="F14" s="112">
         <f ca="1">'% Konfidenz'!B18</f>
-        <v>64.773386226662723</v>
+        <v>93.773514663372879</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -10391,19 +10605,19 @@
       </c>
       <c r="C15" s="113">
         <f ca="1">C14/C6</f>
-        <v>7.2027707017584977</v>
+        <v>10.438390323471261</v>
       </c>
       <c r="D15" s="113">
         <f>D14/C6</f>
-        <v>7.427083333333333</v>
+        <v>10.760416666666666</v>
       </c>
       <c r="E15" s="113">
         <f ca="1">E14/C6</f>
-        <v>7.6513959649081684</v>
+        <v>11.082443009862072</v>
       </c>
       <c r="F15" s="114">
         <f ca="1">F14/C6</f>
-        <v>8.0966732783328403</v>
+        <v>11.72168933292161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -10457,19 +10671,19 @@
       </c>
       <c r="C19" s="115">
         <f ca="1">(C5*C14)+C16+C17</f>
-        <v>4609.7732491254383</v>
+        <v>6680.5698070216067</v>
       </c>
       <c r="D19" s="115">
         <f>(C5*D14)+D16+D17</f>
-        <v>4753.333333333333</v>
+        <v>6886.6666666666661</v>
       </c>
       <c r="E19" s="115">
         <f ca="1">(C5*E14)+E16+E17</f>
-        <v>4896.8934175412278</v>
+        <v>7092.7635263117263</v>
       </c>
       <c r="F19" s="116">
         <f ca="1">(C5*F14)+F16+F17</f>
-        <v>5181.8708981330183</v>
+        <v>7501.8811730698308</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10557,7 +10771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -10631,19 +10845,19 @@
       </c>
       <c r="D5" s="126">
         <f ca="1">B5*('% Konfidenz'!D8^(C5))</f>
-        <v>2.1344097001012443</v>
+        <v>2.4154002132511327</v>
       </c>
       <c r="E5" s="133">
         <f>B5*('% Konfidenz'!D11^(C5))</f>
-        <v>2.1563405759053405</v>
+        <v>2.4399875984767871</v>
       </c>
       <c r="F5" s="126">
         <f ca="1">B5*('% Konfidenz'!D14^(C5))</f>
-        <v>2.1778342090966278</v>
+        <v>2.464089198994686</v>
       </c>
       <c r="G5" s="128">
         <f ca="1">B5*('% Konfidenz'!D18^(C5))</f>
-        <v>2.2192869585789121</v>
+        <v>2.5105834318020768</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
@@ -10658,19 +10872,19 @@
       </c>
       <c r="D6" s="126">
         <f ca="1">B6*('% Konfidenz'!D8^(C6))</f>
-        <v>1.7786747500843703</v>
+        <v>2.0128335110426105</v>
       </c>
       <c r="E6" s="133">
         <f>B6*('% Konfidenz'!D11^(C6))</f>
-        <v>1.7969504799211169</v>
+        <v>2.033322998730656</v>
       </c>
       <c r="F6" s="126">
         <f ca="1">B6*('% Konfidenz'!D14^(C6))</f>
-        <v>1.8148618409138568</v>
+        <v>2.0534076658289053</v>
       </c>
       <c r="G6" s="128">
         <f ca="1">B6*('% Konfidenz'!D18^(C6))</f>
-        <v>1.8494057988157599</v>
+        <v>2.092152859835064</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10685,19 +10899,19 @@
       </c>
       <c r="D7" s="130">
         <f ca="1">B7*('% Konfidenz'!D8^(C7))</f>
-        <v>1.4229398000674962</v>
+        <v>1.6102668088340886</v>
       </c>
       <c r="E7" s="133">
         <f>B7*('% Konfidenz'!D11^(C7))</f>
-        <v>1.4375603839368936</v>
+        <v>1.6266583989845247</v>
       </c>
       <c r="F7" s="130">
         <f ca="1">B7*('% Konfidenz'!D14^(C7))</f>
-        <v>1.4518894727310854</v>
+        <v>1.6427261326631242</v>
       </c>
       <c r="G7" s="132">
         <f ca="1">B7*('% Konfidenz'!D18^(C7))</f>
-        <v>1.479524639052608</v>
+        <v>1.6737222878680511</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10749,19 +10963,19 @@
       </c>
       <c r="D11" s="130">
         <f ca="1">('% Konfidenz'!D8^(C11))</f>
-        <v>0.60011543480227603</v>
+        <v>0.72243997409720007</v>
       </c>
       <c r="E11" s="139">
         <f>('% Konfidenz'!D11^(C11))</f>
-        <v>0.60938835455452101</v>
+        <v>0.73349903430974828</v>
       </c>
       <c r="F11" s="130">
         <f ca="1">('% Konfidenz'!D14^(C11))</f>
-        <v>0.61852226980554903</v>
+        <v>0.74439381411528638</v>
       </c>
       <c r="G11" s="132">
         <f ca="1">('% Konfidenz'!D18^(C11))</f>
-        <v>0.63626540367730355</v>
+        <v>0.76556153681208439</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -10817,19 +11031,19 @@
       </c>
       <c r="D15" s="126">
         <f ca="1">B15*('% Konfidenz'!D8^(C15))</f>
-        <v>1.695893026129818</v>
+        <v>1.9526722420123621</v>
       </c>
       <c r="E15" s="133">
         <f>B15*('% Konfidenz'!D11^(C15))</f>
-        <v>1.7157719482145861</v>
+        <v>1.9753482134727789</v>
       </c>
       <c r="F15" s="126">
         <f ca="1">B15*('% Konfidenz'!D14^(C15))</f>
-        <v>1.7352820236166289</v>
+        <v>1.9976072376030976</v>
       </c>
       <c r="G15" s="128">
         <f ca="1">B15*('% Konfidenz'!D18^(C15))</f>
-        <v>1.7729852554166166</v>
+        <v>2.0406329218509791</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -10844,19 +11058,19 @@
       </c>
       <c r="D16" s="126">
         <f ca="1">B16*('% Konfidenz'!D8^(C16))</f>
-        <v>1.7486559359086493</v>
+        <v>1.991137476318019</v>
       </c>
       <c r="E16" s="133">
         <f>B16*('% Konfidenz'!D11^(C16))</f>
-        <v>1.7675264198558556</v>
+        <v>2.012424941182831</v>
       </c>
       <c r="F16" s="126">
         <f ca="1">B16*('% Konfidenz'!D14^(C16))</f>
-        <v>1.7860299912431636</v>
+        <v>2.0333022326470869</v>
       </c>
       <c r="G16" s="128">
         <f ca="1">B16*('% Konfidenz'!D18^(C16))</f>
-        <v>1.821741808318917</v>
+        <v>2.0736052444167674</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -10871,19 +11085,19 @@
       </c>
       <c r="D17" s="126">
         <f ca="1">B17*('% Konfidenz'!D8^(C17))</f>
-        <v>1.80306041423304</v>
+        <v>2.0303604282878878</v>
       </c>
       <c r="E17" s="133">
         <f>B17*('% Konfidenz'!D11^(C17))</f>
-        <v>1.8208420111655363</v>
+        <v>2.0501975885936776</v>
       </c>
       <c r="F17" s="126">
         <f ca="1">B17*('% Konfidenz'!D14^(C17))</f>
-        <v>1.8382620727965269</v>
+        <v>2.0696350571138007</v>
       </c>
       <c r="G17" s="128">
         <f ca="1">B17*('% Konfidenz'!D18^(C17))</f>
-        <v>1.8718391515316004</v>
+        <v>2.1071103301482093</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10898,19 +11112,19 @@
       </c>
       <c r="D18" s="126">
         <f ca="1">D15*0.75</f>
-        <v>1.2719197695973634</v>
+        <v>1.4645041815092716</v>
       </c>
       <c r="E18" s="133">
         <f t="shared" ref="D18:G20" si="0">E15*0.75</f>
-        <v>1.2868289611609396</v>
+        <v>1.4815111601045841</v>
       </c>
       <c r="F18" s="126">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3014615177124718</v>
+        <v>1.4982054282023232</v>
       </c>
       <c r="G18" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3297389415624625</v>
+        <v>1.5304746913882343</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -10925,19 +11139,19 @@
       </c>
       <c r="D19" s="126">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3114919519314869</v>
+        <v>1.4933531072385142</v>
       </c>
       <c r="E19" s="133">
         <f t="shared" si="0"/>
-        <v>1.3256448148918918</v>
+        <v>1.5093187058871234</v>
       </c>
       <c r="F19" s="126">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3395224934323728</v>
+        <v>1.5249766744853153</v>
       </c>
       <c r="G19" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3663063562391877</v>
+        <v>1.5552039333125756</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10952,19 +11166,19 @@
       </c>
       <c r="D20" s="130">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3522953106747799</v>
+        <v>1.5227703212159158</v>
       </c>
       <c r="E20" s="139">
         <f t="shared" si="0"/>
-        <v>1.3656315083741521</v>
+        <v>1.5376481914452582</v>
       </c>
       <c r="F20" s="130">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3786965545973953</v>
+        <v>1.5522262928353505</v>
       </c>
       <c r="G20" s="132">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4038793636487004</v>
+        <v>1.5803327476111568</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11018,19 +11232,19 @@
       </c>
       <c r="E24" s="126">
         <f ca="1">B24*(('% Konfidenz'!D8 /C24)^(D24))</f>
-        <v>0.86619201956985858</v>
+        <v>1.0427522837959118</v>
       </c>
       <c r="F24" s="133">
         <f>B24*(('% Konfidenz'!D11 /C24)^(D24))</f>
-        <v>0.87957632635768956</v>
+        <v>1.0587146622726593</v>
       </c>
       <c r="G24" s="128">
         <f ca="1">B24*(('% Konfidenz'!D14 /C24)^(D24))</f>
-        <v>0.89275999743003032</v>
+        <v>1.0744399224063821</v>
       </c>
       <c r="H24" s="141">
         <f ca="1">B24*(('% Konfidenz'!D18 /C24)^(D24))</f>
-        <v>0.91837000522284273</v>
+        <v>1.1049928983992015</v>
       </c>
       <c r="I24" s="97"/>
     </row>
@@ -11049,19 +11263,19 @@
       </c>
       <c r="E25" s="130">
         <f ca="1">B25*(('% Konfidenz'!D8 /C25)^(D25))</f>
-        <v>2.1808243810398382</v>
+        <v>2.4679252885596572</v>
       </c>
       <c r="F25" s="139">
         <f>B25*(('% Konfidenz'!D11 /C25)^(D25))</f>
-        <v>2.2032321636922791</v>
+        <v>2.4930473488480747</v>
       </c>
       <c r="G25" s="132">
         <f ca="1">B25*(('% Konfidenz'!D14 /C25)^(D25))</f>
-        <v>2.2251931954934667</v>
+        <v>2.5176730605982707</v>
       </c>
       <c r="H25" s="142">
         <f ca="1">B25*(('% Konfidenz'!D18 /C25)^(D25))</f>
-        <v>2.2675473727293611</v>
+        <v>2.5651783528012109</v>
       </c>
       <c r="I25" s="97"/>
     </row>
@@ -11185,35 +11399,35 @@
       </c>
       <c r="B57" s="145">
         <f ca="1">D5</f>
-        <v>2.1344097001012443</v>
+        <v>2.4154002132511327</v>
       </c>
       <c r="C57" s="145">
         <f ca="1">D6</f>
-        <v>1.7786747500843703</v>
+        <v>2.0128335110426105</v>
       </c>
       <c r="D57" s="145">
         <f ca="1">D11</f>
-        <v>0.60011543480227603</v>
+        <v>0.72243997409720007</v>
       </c>
       <c r="E57" s="145">
         <f ca="1">D15</f>
-        <v>1.695893026129818</v>
+        <v>1.9526722420123621</v>
       </c>
       <c r="F57" s="145">
         <f ca="1">D16</f>
-        <v>1.7486559359086493</v>
+        <v>1.991137476318019</v>
       </c>
       <c r="G57" s="145">
         <f ca="1">D17</f>
-        <v>1.80306041423304</v>
+        <v>2.0303604282878878</v>
       </c>
       <c r="H57" s="145">
         <f ca="1">E24</f>
-        <v>0.86619201956985858</v>
+        <v>1.0427522837959118</v>
       </c>
       <c r="I57" s="146">
         <f ca="1">E25</f>
-        <v>2.1808243810398382</v>
+        <v>2.4679252885596572</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -11222,35 +11436,35 @@
       </c>
       <c r="B58" s="145">
         <f>E5</f>
-        <v>2.1563405759053405</v>
+        <v>2.4399875984767871</v>
       </c>
       <c r="C58" s="145">
         <f>E6</f>
-        <v>1.7969504799211169</v>
+        <v>2.033322998730656</v>
       </c>
       <c r="D58" s="145">
         <f>E11</f>
-        <v>0.60938835455452101</v>
+        <v>0.73349903430974828</v>
       </c>
       <c r="E58" s="145">
         <f>E15</f>
-        <v>1.7157719482145861</v>
+        <v>1.9753482134727789</v>
       </c>
       <c r="F58" s="145">
         <f>E16</f>
-        <v>1.7675264198558556</v>
+        <v>2.012424941182831</v>
       </c>
       <c r="G58" s="145">
         <f>E17</f>
-        <v>1.8208420111655363</v>
+        <v>2.0501975885936776</v>
       </c>
       <c r="H58" s="145">
         <f>F24</f>
-        <v>0.87957632635768956</v>
+        <v>1.0587146622726593</v>
       </c>
       <c r="I58" s="146">
         <f>F25</f>
-        <v>2.2032321636922791</v>
+        <v>2.4930473488480747</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -11259,35 +11473,35 @@
       </c>
       <c r="B59" s="145">
         <f ca="1">F5</f>
-        <v>2.1778342090966278</v>
+        <v>2.464089198994686</v>
       </c>
       <c r="C59" s="145">
         <f ca="1">F6</f>
-        <v>1.8148618409138568</v>
+        <v>2.0534076658289053</v>
       </c>
       <c r="D59" s="145">
         <f ca="1">F11</f>
-        <v>0.61852226980554903</v>
+        <v>0.74439381411528638</v>
       </c>
       <c r="E59" s="145">
         <f ca="1">F15</f>
-        <v>1.7352820236166289</v>
+        <v>1.9976072376030976</v>
       </c>
       <c r="F59" s="145">
         <f ca="1">F16</f>
-        <v>1.7860299912431636</v>
+        <v>2.0333022326470869</v>
       </c>
       <c r="G59" s="145">
         <f ca="1">F17</f>
-        <v>1.8382620727965269</v>
+        <v>2.0696350571138007</v>
       </c>
       <c r="H59" s="145">
         <f ca="1">G24</f>
-        <v>0.89275999743003032</v>
+        <v>1.0744399224063821</v>
       </c>
       <c r="I59" s="146">
         <f ca="1">G25</f>
-        <v>2.2251931954934667</v>
+        <v>2.5176730605982707</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11296,35 +11510,35 @@
       </c>
       <c r="B60" s="148">
         <f ca="1">G5</f>
-        <v>2.2192869585789121</v>
+        <v>2.5105834318020768</v>
       </c>
       <c r="C60" s="148">
         <f ca="1">G6</f>
-        <v>1.8494057988157599</v>
+        <v>2.092152859835064</v>
       </c>
       <c r="D60" s="148">
         <f ca="1">G11</f>
-        <v>0.63626540367730355</v>
+        <v>0.76556153681208439</v>
       </c>
       <c r="E60" s="148">
         <f ca="1">G15</f>
-        <v>1.7729852554166166</v>
+        <v>2.0406329218509791</v>
       </c>
       <c r="F60" s="148">
         <f ca="1">G16</f>
-        <v>1.821741808318917</v>
+        <v>2.0736052444167674</v>
       </c>
       <c r="G60" s="148">
         <f ca="1">G17</f>
-        <v>1.8718391515316004</v>
+        <v>2.1071103301482093</v>
       </c>
       <c r="H60" s="148">
         <f ca="1">H24</f>
-        <v>0.91837000522284273</v>
+        <v>1.1049928983992015</v>
       </c>
       <c r="I60" s="149">
         <f ca="1">H25</f>
-        <v>2.2675473727293611</v>
+        <v>2.5651783528012109</v>
       </c>
     </row>
   </sheetData>
@@ -11421,19 +11635,19 @@
       </c>
       <c r="D4" s="155">
         <f ca="1">B4*('% Konfidenz'!D8^(C4))</f>
-        <v>0.21235922875972532</v>
+        <v>0.26728475211778979</v>
       </c>
       <c r="E4" s="161">
         <f>B4*('% Konfidenz'!D11^(C4))</f>
-        <v>0.21643562074382544</v>
+        <v>0.27236759051583154</v>
       </c>
       <c r="F4" s="155">
         <f ca="1">B4*('% Konfidenz'!D14^(C4))</f>
-        <v>0.2204654880525222</v>
+        <v>0.27739294294807793</v>
       </c>
       <c r="G4" s="156">
         <f ca="1">B4*('% Konfidenz'!D18^(C4))</f>
-        <v>0.22833447863136014</v>
+        <v>0.28720719947733969</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -11450,19 +11664,19 @@
       </c>
       <c r="D5" s="155">
         <f ca="1">B5*('% Konfidenz'!D8^(C5))</f>
-        <v>0.20595162701391403</v>
+        <v>0.26212128613976399</v>
       </c>
       <c r="E5" s="161">
         <f>B5*('% Konfidenz'!D11^(C5))</f>
-        <v>0.2100982268185565</v>
+        <v>0.26734951566298121</v>
       </c>
       <c r="F5" s="155">
         <f ca="1">B5*('% Konfidenz'!D14^(C5))</f>
-        <v>0.21420121729261737</v>
+        <v>0.27252325876400124</v>
       </c>
       <c r="G5" s="156">
         <f ca="1">B5*('% Konfidenz'!D18^(C5))</f>
-        <v>0.2222234029366752</v>
+        <v>0.28264032810686956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -11477,19 +11691,19 @@
       </c>
       <c r="D6" s="158">
         <f ca="1">B6*('% Konfidenz'!D8^(C6))</f>
-        <v>0.19973736445271326</v>
+        <v>0.2570575691399159</v>
       </c>
       <c r="E6" s="162">
         <f>B6*('% Konfidenz'!D11^(C6))</f>
-        <v>0.20394639644158896</v>
+        <v>0.26242389334892641</v>
       </c>
       <c r="F6" s="158">
         <f ca="1">B6*('% Konfidenz'!D14^(C6))</f>
-        <v>0.2081149385100512</v>
+        <v>0.26773906278233028</v>
       </c>
       <c r="G6" s="160">
         <f ca="1">B6*('% Konfidenz'!D18^(C6))</f>
-        <v>0.21627588224415206</v>
+        <v>0.27814607439414746</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -11523,19 +11737,19 @@
       </c>
       <c r="B11" s="158">
         <f ca="1">('% Konfidenz'!D8^(0.5))</f>
-        <v>0.60011543480227603</v>
+        <v>0.72243997409720007</v>
       </c>
       <c r="C11" s="162">
         <f>('% Konfidenz'!D11^(0.5))</f>
-        <v>0.60938835455452101</v>
+        <v>0.73349903430974828</v>
       </c>
       <c r="D11" s="158">
         <f ca="1">('% Konfidenz'!D14^(0.5))</f>
-        <v>0.61852226980554903</v>
+        <v>0.74439381411528638</v>
       </c>
       <c r="E11" s="160">
         <f ca="1">('% Konfidenz'!D18^(0.5))</f>
-        <v>0.63626540367730355</v>
+        <v>0.76556153681208439</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -11702,7 +11916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -11751,19 +11965,19 @@
       </c>
       <c r="B4" s="186">
         <f ca="1">IF((I22-(2*Gesamtprojekt!L2))&lt;0,"NV",(I22-(2*Gesamtprojekt!L2)))</f>
-        <v>54.059947106670599</v>
+        <v>78.393152003293778</v>
       </c>
       <c r="C4" s="186">
         <f ca="1">B4/B34</f>
-        <v>6.7574933883338248</v>
+        <v>9.7991440004117223</v>
       </c>
       <c r="D4" s="186">
         <f ca="1">B4/B35</f>
-        <v>0.33787466941669125</v>
+        <v>0.48995720002058613</v>
       </c>
       <c r="E4" s="187">
         <f ca="1">B4/B36</f>
-        <v>2.8156222451390937E-2</v>
+        <v>4.0829766668382179E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -11772,19 +11986,19 @@
       </c>
       <c r="B5" s="186">
         <f ca="1">IF((I22-(1.28*Gesamtprojekt!L2))&lt;0,"NV",(I22-(1.28*Gesamtprojekt!L2)))</f>
-        <v>55.988366148269179</v>
+        <v>81.161617282108011</v>
       </c>
       <c r="C5" s="189">
         <f ca="1">B5/B34</f>
-        <v>6.9985457685336474</v>
+        <v>10.145202160263501</v>
       </c>
       <c r="D5" s="189">
         <f ca="1">B5/B35</f>
-        <v>0.34992728842668236</v>
+        <v>0.50726010801317512</v>
       </c>
       <c r="E5" s="190">
         <f ca="1">B5/B36</f>
-        <v>2.9160607368890198E-2</v>
+        <v>4.2271675667764588E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -11793,19 +12007,19 @@
       </c>
       <c r="B6" s="189">
         <f ca="1">IF((I22-(1*Gesamtprojekt!L2))&lt;0,"NV",(I22-(1*Gesamtprojekt!L2)))</f>
-        <v>56.738306886668632</v>
+        <v>82.238242668313546</v>
       </c>
       <c r="C6" s="189">
         <f ca="1">B6/B34</f>
-        <v>7.0922883608335789</v>
+        <v>10.279780333539193</v>
       </c>
       <c r="D6" s="189">
         <f ca="1">B6/B35</f>
-        <v>0.35461441804167892</v>
+        <v>0.51398901667695962</v>
       </c>
       <c r="E6" s="190">
         <f ca="1">B6/B36</f>
-        <v>2.9551201503473245E-2</v>
+        <v>4.2832418056413309E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -11814,19 +12028,19 @@
       </c>
       <c r="B7" s="189">
         <f ca="1">IF((I22-(0.84*Gesamtprojekt!L2))&lt;0,"NV",(I22-(0.84*Gesamtprojekt!L2)))</f>
-        <v>57.166844451468315</v>
+        <v>82.853457174716723</v>
       </c>
       <c r="C7" s="189">
         <f ca="1">B7/B34</f>
-        <v>7.1458555564335393</v>
+        <v>10.35668214683959</v>
       </c>
       <c r="D7" s="189">
         <f ca="1">B7/B35</f>
-        <v>0.35729277782167695</v>
+        <v>0.51783410734197954</v>
       </c>
       <c r="E7" s="190">
         <f ca="1">B7/B36</f>
-        <v>2.9774398151806415E-2</v>
+        <v>4.3152842278498291E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -11835,19 +12049,19 @@
       </c>
       <c r="B8" s="192">
         <f ca="1">IF((I22-(0.67*Gesamtprojekt!L2))&lt;0,"NV",(I22-(0.67*Gesamtprojekt!L2)))</f>
-        <v>57.622165614067981</v>
+        <v>83.507122587770084</v>
       </c>
       <c r="C8" s="192">
         <f ca="1">B8/B34</f>
-        <v>7.2027707017584977</v>
+        <v>10.438390323471261</v>
       </c>
       <c r="D8" s="192">
         <f ca="1">B8/B35</f>
-        <v>0.36013853508792487</v>
+        <v>0.52191951617356303</v>
       </c>
       <c r="E8" s="192">
         <f ca="1">B8/B36</f>
-        <v>3.0011544590660407E-2</v>
+        <v>4.3493293014463585E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -11856,19 +12070,19 @@
       </c>
       <c r="B9" s="189">
         <f ca="1">IF((I22-(0.52*Gesamtprojekt!L2))&lt;0,"NV",(I22-(0.52*Gesamtprojekt!L2)))</f>
-        <v>58.023919581067688</v>
+        <v>84.083886187523049</v>
       </c>
       <c r="C9" s="189">
         <f ca="1">B9/B34</f>
-        <v>7.2529899476334609</v>
+        <v>10.510485773440381</v>
       </c>
       <c r="D9" s="189">
         <f ca="1">B9/B35</f>
-        <v>0.36264949738167307</v>
+        <v>0.52552428867201906</v>
       </c>
       <c r="E9" s="190">
         <f ca="1">B9/B36</f>
-        <v>3.0220791448472752E-2</v>
+        <v>4.3793690722668255E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -11877,19 +12091,19 @@
       </c>
       <c r="B10" s="189">
         <f ca="1">IF((I22-(0.25*Gesamtprojekt!L2))&lt;0,"NV",(I22-(0.25*Gesamtprojekt!L2)))</f>
-        <v>58.747076721667156</v>
+        <v>85.122060667078387</v>
       </c>
       <c r="C10" s="189">
         <f ca="1">B10/B34</f>
-        <v>7.3433845902083945</v>
+        <v>10.640257583384798</v>
       </c>
       <c r="D10" s="189">
         <f ca="1">B10/B35</f>
-        <v>0.36716922951041975</v>
+        <v>0.53201287916923989</v>
       </c>
       <c r="E10" s="190">
         <f ca="1">B10/B36</f>
-        <v>3.0597435792534978E-2</v>
+        <v>4.4334406597436662E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -11898,19 +12112,19 @@
       </c>
       <c r="B11" s="192">
         <f>I22</f>
-        <v>59.416666666666664</v>
+        <v>86.083333333333329</v>
       </c>
       <c r="C11" s="192">
         <f>B11/B34</f>
-        <v>7.427083333333333</v>
+        <v>10.760416666666666</v>
       </c>
       <c r="D11" s="192">
         <f>B11/B35</f>
-        <v>0.37135416666666665</v>
+        <v>0.53802083333333328</v>
       </c>
       <c r="E11" s="192">
         <f>B11/B36</f>
-        <v>3.0946180555555553E-2</v>
+        <v>4.4835069444444445E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -11919,19 +12133,19 @@
       </c>
       <c r="B12" s="189">
         <f ca="1">I22+(0.25*Gesamtprojekt!L2)</f>
-        <v>60.086256611666172</v>
+        <v>87.044605999588271</v>
       </c>
       <c r="C12" s="189">
         <f ca="1">B12/B34</f>
-        <v>7.5107820764582716</v>
+        <v>10.880575749948534</v>
       </c>
       <c r="D12" s="189">
         <f ca="1">B12/B35</f>
-        <v>0.37553910382291356</v>
+        <v>0.54402878749742667</v>
       </c>
       <c r="E12" s="190">
         <f ca="1">B12/B36</f>
-        <v>3.1294925318576132E-2</v>
+        <v>4.5335732291452227E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -11940,19 +12154,19 @@
       </c>
       <c r="B13" s="189">
         <f ca="1">I22+(0.52*Gesamtprojekt!L2)</f>
-        <v>60.809413752265641</v>
+        <v>88.082780479143608</v>
       </c>
       <c r="C13" s="189">
         <f ca="1">B13/B34</f>
-        <v>7.6011767190332051</v>
+        <v>11.010347559892951</v>
       </c>
       <c r="D13" s="189">
         <f ca="1">B13/B35</f>
-        <v>0.38005883595166023</v>
+        <v>0.55051737799464751</v>
       </c>
       <c r="E13" s="190">
         <f ca="1">B13/B36</f>
-        <v>3.1671569662638357E-2</v>
+        <v>4.5876448166220628E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -11961,19 +12175,19 @@
       </c>
       <c r="B14" s="192">
         <f ca="1">I22+(0.67*Gesamtprojekt!L2)</f>
-        <v>61.211167719265347</v>
+        <v>88.659544078896573</v>
       </c>
       <c r="C14" s="192">
         <f ca="1">B14/B34</f>
-        <v>7.6513959649081684</v>
+        <v>11.082443009862072</v>
       </c>
       <c r="D14" s="192">
         <f ca="1">B14/B35</f>
-        <v>0.38256979824540843</v>
+        <v>0.55412215049310354</v>
       </c>
       <c r="E14" s="192">
         <f ca="1">B14/B36</f>
-        <v>3.1880816520450703E-2</v>
+        <v>4.6176845874425297E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -11982,19 +12196,19 @@
       </c>
       <c r="B15" s="189">
         <f ca="1">I22+(0.84*Gesamtprojekt!L2)</f>
-        <v>61.666488881865014</v>
+        <v>89.313209491949934</v>
       </c>
       <c r="C15" s="189">
         <f ca="1">B15/B34</f>
-        <v>7.7083111102331268</v>
+        <v>11.164151186493742</v>
       </c>
       <c r="D15" s="189">
         <f ca="1">B15/B35</f>
-        <v>0.38541555551165635</v>
+        <v>0.55820755932468713</v>
       </c>
       <c r="E15" s="190">
         <f ca="1">B15/B36</f>
-        <v>3.2117962959304698E-2</v>
+        <v>4.6517296610390592E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -12003,19 +12217,19 @@
       </c>
       <c r="B16" s="189">
         <f ca="1">I22+(1*Gesamtprojekt!L2)</f>
-        <v>62.095026446664697</v>
+        <v>89.928423998353111</v>
       </c>
       <c r="C16" s="189">
         <f ca="1">B16/B34</f>
-        <v>7.7618783058330871</v>
+        <v>11.241052999794139</v>
       </c>
       <c r="D16" s="189">
         <f ca="1">B16/B35</f>
-        <v>0.38809391529165438</v>
+        <v>0.56205264998970694</v>
       </c>
       <c r="E16" s="190">
         <f ca="1">B16/B36</f>
-        <v>3.2341159607637865E-2</v>
+        <v>4.6837720832475581E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -12024,19 +12238,19 @@
       </c>
       <c r="B17" s="189">
         <f ca="1">I22+(1.28*Gesamtprojekt!L2)</f>
-        <v>62.844967185064149</v>
+        <v>91.005049384558646</v>
       </c>
       <c r="C17" s="189">
         <f ca="1">B17/B34</f>
-        <v>7.8556208981330187</v>
+        <v>11.375631173069831</v>
       </c>
       <c r="D17" s="189">
         <f ca="1">B17/B35</f>
-        <v>0.39278104490665094</v>
+        <v>0.56878155865349156</v>
       </c>
       <c r="E17" s="190">
         <f ca="1">B17/B36</f>
-        <v>3.2731753742220912E-2</v>
+        <v>4.7398463221124294E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12045,19 +12259,19 @@
       </c>
       <c r="B18" s="194">
         <f ca="1">I22+(2*Gesamtprojekt!L2)</f>
-        <v>64.773386226662723</v>
+        <v>93.773514663372879</v>
       </c>
       <c r="C18" s="194">
         <f ca="1">B18/B34</f>
-        <v>8.0966732783328403</v>
+        <v>11.72168933292161</v>
       </c>
       <c r="D18" s="194">
         <f ca="1">B18/B35</f>
-        <v>0.40483366391664199</v>
+        <v>0.58608446664608049</v>
       </c>
       <c r="E18" s="194">
         <f ca="1">B18/B36</f>
-        <v>3.3736138659720166E-2</v>
+        <v>4.884037222050671E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12125,7 +12339,7 @@
       </c>
       <c r="I22" s="91">
         <f>IF((H29=TRUE),(Gesamtprojekt!I2+(D29*B34)),Gesamtprojekt!I2)</f>
-        <v>59.416666666666664</v>
+        <v>86.083333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12565,7 +12779,7 @@
   </sheetPr>
   <dimension ref="A1:M322"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -12636,20 +12850,20 @@
       <c r="D2" s="216"/>
       <c r="E2" s="217">
         <f>SUM(E3:E9997)</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F2" s="217">
         <f>SUM(F3:F9997)</f>
-        <v>57.5</v>
+        <v>85.5</v>
       </c>
       <c r="G2" s="217">
         <f>SUM(G3:G9997)</f>
-        <v>78.5</v>
+        <v>113.5</v>
       </c>
       <c r="H2" s="216"/>
       <c r="I2" s="218">
         <f>SUM(I3:I9997)</f>
-        <v>59.416666666666664</v>
+        <v>86.083333333333329</v>
       </c>
       <c r="J2" s="218" t="s">
         <v>521</v>
@@ -12657,11 +12871,11 @@
       <c r="K2" s="218"/>
       <c r="L2" s="219">
         <f ca="1">M2^(1/2)</f>
-        <v>2.6783597799980328</v>
+        <v>3.8450906650197756</v>
       </c>
       <c r="M2" s="219">
         <f ca="1">SUM(M3:M9997)</f>
-        <v>7.1736111111111107</v>
+        <v>14.784722222222221</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13531,20 +13745,20 @@
       <c r="D34" s="222"/>
       <c r="E34" s="223">
         <f>Software!E2</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F34" s="223">
         <f>Software!F2</f>
-        <v>57.5</v>
+        <v>85.5</v>
       </c>
       <c r="G34" s="223">
         <f>Software!G2</f>
-        <v>78.5</v>
+        <v>113.5</v>
       </c>
       <c r="H34" s="222"/>
       <c r="I34" s="224">
         <f t="shared" si="2"/>
-        <v>59.416666666666664</v>
+        <v>86.083333333333329</v>
       </c>
       <c r="J34" s="225">
         <v>99.73</v>
@@ -13557,7 +13771,7 @@
       </c>
       <c r="M34" s="226">
         <f ca="1">Software!M2</f>
-        <v>7.1736111111111107</v>
+        <v>14.784722222222221</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17287,10 +17501,10 @@
   <sheetPr codeName="Tabelle8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:M332"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17360,21 +17574,21 @@
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="217">
-        <f>SUM(E3:E10005)</f>
-        <v>48</v>
+        <f>SUM(E3:E10007)</f>
+        <v>61</v>
       </c>
       <c r="F2" s="217">
-        <f>SUM(F3:F10005)</f>
-        <v>57.5</v>
+        <f>SUM(F3:F10007)</f>
+        <v>85.5</v>
       </c>
       <c r="G2" s="217">
-        <f>SUM(G3:G10005)</f>
-        <v>78.5</v>
+        <f>SUM(G3:G10007)</f>
+        <v>113.5</v>
       </c>
       <c r="H2" s="216"/>
       <c r="I2" s="218">
-        <f>SUM(I3:I10005)</f>
-        <v>59.416666666666657</v>
+        <f>SUM(I3:I10007)</f>
+        <v>86.083333333333329</v>
       </c>
       <c r="J2" s="218" t="s">
         <v>521</v>
@@ -17382,11 +17596,11 @@
       <c r="K2" s="218"/>
       <c r="L2" s="219">
         <f ca="1">M2^(1/2)</f>
-        <v>2.6783597799980328</v>
+        <v>3.8450906650197756</v>
       </c>
       <c r="M2" s="219">
-        <f ca="1">SUM(M3:M10005)</f>
-        <v>7.1736111111111107</v>
+        <f ca="1">SUM(M3:M10007)</f>
+        <v>14.784722222222221</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17397,7 +17611,7 @@
         <v>161</v>
       </c>
       <c r="I3" s="227">
-        <f t="shared" ref="I3:I67" si="0">(E3+(4*F3)+G3)/6</f>
+        <f t="shared" ref="I3:I69" si="0">(E3+(4*F3)+G3)/6</f>
         <v>0</v>
       </c>
       <c r="J3" s="16">
@@ -17408,11 +17622,11 @@
         <v>6</v>
       </c>
       <c r="L3" s="228">
-        <f t="shared" ref="L3:L67" ca="1" si="1">(G3-E3)/K3</f>
+        <f t="shared" ref="L3:L69" ca="1" si="1">(G3-E3)/K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="228">
-        <f t="shared" ref="M3:M67" ca="1" si="2">L3^2</f>
+        <f t="shared" ref="M3:M69" ca="1" si="2">L3^2</f>
         <v>0</v>
       </c>
     </row>
@@ -18313,11 +18527,25 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="12" t="s">
+        <v>536</v>
+      </c>
       <c r="B33" s="6"/>
+      <c r="C33" s="253" t="s">
+        <v>528</v>
+      </c>
+      <c r="E33" s="20">
+        <v>10</v>
+      </c>
+      <c r="F33" s="20">
+        <v>20</v>
+      </c>
+      <c r="G33" s="20">
+        <v>25</v>
+      </c>
       <c r="I33" s="227">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I33:I34" si="5">(E33+(4*F33)+G33)/6</f>
+        <v>19.166666666666668</v>
       </c>
       <c r="J33" s="16">
         <v>99.73</v>
@@ -18327,24 +18555,34 @@
         <v>6</v>
       </c>
       <c r="L33" s="228">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="L33:L34" ca="1" si="6">(G33-E33)/K33</f>
+        <v>2.5</v>
       </c>
       <c r="M33" s="228">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="M33:M34" ca="1" si="7">L33^2</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>111</v>
+      <c r="A34" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="253" t="s">
+        <v>535</v>
+      </c>
+      <c r="E34" s="20">
+        <v>3</v>
+      </c>
+      <c r="F34" s="20">
+        <v>8</v>
+      </c>
+      <c r="G34" s="20">
+        <v>10</v>
       </c>
       <c r="I34" s="227">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>7.5</v>
       </c>
       <c r="J34" s="16">
         <v>99.73</v>
@@ -18354,19 +18592,17 @@
         <v>6</v>
       </c>
       <c r="L34" s="228">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="M34" s="228">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3611111111111114</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I35" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18388,9 +18624,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
+      <c r="A36" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="I36" s="227">
         <f t="shared" si="0"/>
@@ -18414,6 +18652,9 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I37" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18435,11 +18676,9 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>74</v>
+      <c r="B38" s="6"/>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I38" s="227">
         <f t="shared" si="0"/>
@@ -18461,15 +18700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>195</v>
-      </c>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="17"/>
       <c r="I39" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18491,11 +18723,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="6"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="I40" s="227">
-        <f>(E40+(4*F40)+G40)/6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J40" s="16">
@@ -18506,7 +18741,7 @@
         <v>6</v>
       </c>
       <c r="L40" s="228">
-        <f ca="1">(G40-E40)/K40</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M40" s="228">
@@ -18515,11 +18750,12 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>19</v>
+      <c r="A41" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E41" s="17"/>
       <c r="I41" s="227">
@@ -18542,16 +18778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>197</v>
-      </c>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="E42" s="17"/>
       <c r="I42" s="227">
-        <f t="shared" si="0"/>
+        <f>(E42+(4*F42)+G42)/6</f>
         <v>0</v>
       </c>
       <c r="J42" s="16">
@@ -18562,7 +18794,7 @@
         <v>6</v>
       </c>
       <c r="L42" s="228">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(G42-E42)/K42</f>
         <v>0</v>
       </c>
       <c r="M42" s="228">
@@ -18570,10 +18802,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="6"/>
-      <c r="E43" s="21"/>
+    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="17"/>
       <c r="I43" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18594,14 +18830,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="21"/>
+    <row r="44" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I44" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18622,11 +18858,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="E45" s="21"/>
       <c r="I45" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18647,10 +18882,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="21"/>
       <c r="I46" s="227">
-        <f>(E46+(4*F46)+G46)/6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J46" s="16">
@@ -18661,7 +18902,7 @@
         <v>6</v>
       </c>
       <c r="L46" s="228">
-        <f ca="1">(G46-E46)/K46</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M46" s="228">
@@ -18669,12 +18910,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>154</v>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I47" s="227">
         <f t="shared" si="0"/>
@@ -18699,7 +18938,7 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
       <c r="I48" s="227">
-        <f t="shared" si="0"/>
+        <f>(E48+(4*F48)+G48)/6</f>
         <v>0</v>
       </c>
       <c r="J48" s="16">
@@ -18710,7 +18949,7 @@
         <v>6</v>
       </c>
       <c r="L48" s="228">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(G48-E48)/K48</f>
         <v>0</v>
       </c>
       <c r="M48" s="228">
@@ -18718,9 +18957,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="I49" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18742,7 +18985,6 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
       <c r="B50" s="6"/>
       <c r="I50" s="227">
         <f t="shared" si="0"/>
@@ -18811,6 +19053,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
       <c r="B53" s="6"/>
       <c r="I53" s="227">
         <f t="shared" si="0"/>
@@ -18833,7 +19076,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="6"/>
       <c r="I54" s="227">
         <f t="shared" si="0"/>
@@ -18856,7 +19099,6 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
       <c r="B55" s="6"/>
       <c r="I55" s="227">
         <f t="shared" si="0"/>
@@ -18879,7 +19121,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="6"/>
       <c r="I56" s="227">
         <f t="shared" si="0"/>
@@ -18948,6 +19190,8 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+      <c r="B59" s="6"/>
       <c r="I59" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18969,6 +19213,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
       <c r="B60" s="6"/>
       <c r="I60" s="227">
         <f t="shared" si="0"/>
@@ -18991,7 +19236,6 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
       <c r="I61" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19035,6 +19279,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
       <c r="I63" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19078,7 +19323,6 @@
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
       <c r="I65" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19100,6 +19344,7 @@
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B66" s="6"/>
       <c r="I66" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19120,10 +19365,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B67" s="6"/>
       <c r="I67" s="227">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19144,109 +19387,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="249" t="s">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I68" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
+        <v>99.73</v>
+      </c>
+      <c r="K68" s="225">
+        <f t="array" aca="1" ref="K68" ca="1">INDIRECT(ADDRESS(ROW(Proz)+MATCH(MIN(ABS(J68-Proz)),ABS(J68-Proz),0)-1,COLUMN(Proz)+1))</f>
+        <v>6</v>
+      </c>
+      <c r="L68" s="228">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="228">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="I69" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="16">
+        <v>99.73</v>
+      </c>
+      <c r="K69" s="225">
+        <f t="array" aca="1" ref="K69" ca="1">INDIRECT(ADDRESS(ROW(Proz)+MATCH(MIN(ABS(J69-Proz)),ABS(J69-Proz),0)-1,COLUMN(Proz)+1))</f>
+        <v>6</v>
+      </c>
+      <c r="L69" s="228">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="228">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="152" t="s">
+      <c r="D70" s="152" t="s">
         <v>112</v>
-      </c>
-      <c r="M68" s="19"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C69" s="250">
-        <v>10</v>
-      </c>
-      <c r="D69" s="190">
-        <v>0.25</v>
-      </c>
-      <c r="M69" s="19"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C70" s="250">
-        <v>20</v>
-      </c>
-      <c r="D70" s="190">
-        <v>0.51</v>
       </c>
       <c r="M70" s="19"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="250">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D71" s="190">
-        <v>0.77</v>
+        <v>0.25</v>
       </c>
       <c r="M71" s="19"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="250">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D72" s="190">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="M72" s="19"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="250">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D73" s="190">
-        <v>1.4</v>
+        <v>0.77</v>
       </c>
       <c r="M73" s="19"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="250">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D74" s="190">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="M74" s="19"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="250">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D75" s="190">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M75" s="19"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="250">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D76" s="190">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="M76" s="19"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="250">
+        <v>70</v>
+      </c>
+      <c r="D77" s="190">
+        <v>2.1</v>
+      </c>
+      <c r="M77" s="19"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C78" s="250">
+        <v>80</v>
+      </c>
+      <c r="D78" s="190">
+        <v>2.6</v>
+      </c>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C79" s="250">
         <v>90</v>
       </c>
-      <c r="D77" s="190">
+      <c r="D79" s="190">
         <v>3.3</v>
       </c>
-      <c r="M77" s="19"/>
-    </row>
-    <row r="78" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="251">
+      <c r="M79" s="19"/>
+    </row>
+    <row r="80" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="251">
         <v>100</v>
       </c>
-      <c r="D78" s="252">
+      <c r="D80" s="252">
         <v>6</v>
       </c>
-      <c r="M78" s="19"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M79" s="19"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M80" s="19"/>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.2">
@@ -19998,6 +20280,12 @@
     </row>
     <row r="330" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M330" s="19"/>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M331" s="19"/>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M332" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -20009,7 +20297,7 @@
     <oddFooter>&amp;L(c) 2006 DI(FH) Sven Schweiger&amp;R&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="555" max="16383" man="1"/>
+    <brk id="557" max="16383" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -20023,7 +20311,7 @@
   <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
